--- a/test/helpers/empty_sample.xlsx
+++ b/test/helpers/empty_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\c\porcupine\helpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\c\porcupine\test\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -54,8 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,7 +344,42 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>